--- a/data/trans_bre/P16A10-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A10-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,98; 1,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,02; 0,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 3,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 3,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,39; 10,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,38; 5,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,86; 33,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,55; 27,29</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,08%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 0,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; -0,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; -0,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,78; -0,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,14; 20,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,14; -4,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,79; -13,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,69; -19,9</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,43%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 1,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; -0,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,75; 1,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; -0,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,84; 126,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 36,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,03; 82,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,92; -14,64</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,85%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 0,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 0,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 0,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 0,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,98; 18,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,49; 12,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,18; 10,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,06; 5,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A10-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,75%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 3,66</t>
+          <t>-3,01; 3,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 27,29</t>
+          <t>-17,5; 27,47</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-43,08%</t>
+          <t>-40,89%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,78; -0,74</t>
+          <t>-2,54; -0,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,69; -19,9</t>
+          <t>-60,98; -10,94</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-51,43%</t>
+          <t>-50,02%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; -0,53</t>
+          <t>-3,46; -0,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,92; -14,64</t>
+          <t>-71,25; -9,05</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-10,85%</t>
+          <t>-8,99%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,28</t>
+          <t>-1,64; 0,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,06; 5,6</t>
+          <t>-27,06; 14,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A10-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,12</t>
+          <t>-3,86; 1,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 0,67</t>
+          <t>-5,09; 0,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 3,52</t>
+          <t>-3,44; 3,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,61</t>
+          <t>-2,73; 3,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 10,57</t>
+          <t>-29,14; 11,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,38; 5,53</t>
+          <t>-34,38; 6,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 33,05</t>
+          <t>-24,08; 28,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 27,47</t>
+          <t>-15,85; 28,49</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,35</t>
+          <t>-1,53; 0,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; -0,11</t>
+          <t>-1,96; -0,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,93; -0,49</t>
+          <t>-3,06; -0,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,54; -0,19</t>
+          <t>-2,57; -0,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,14; 20,93</t>
+          <t>-55,4; 24,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,14; -4,26</t>
+          <t>-69,76; -8,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-59,79; -13,98</t>
+          <t>-61,49; -18,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,98; -10,94</t>
+          <t>-60,39; -9,94</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,25</t>
+          <t>-2,21; 1,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; -0,08</t>
+          <t>-2,95; -0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,59</t>
+          <t>-2,59; 1,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; -0,38</t>
+          <t>-3,45; -0,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-74,84; 126,88</t>
+          <t>-74,08; 128,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 36,82</t>
+          <t>-100,0; 56,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-64,03; 82,17</t>
+          <t>-62,94; 85,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,25; -9,05</t>
+          <t>-73,18; -15,13</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,92</t>
+          <t>-1,16; 1,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,59</t>
+          <t>-1,59; 0,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,58</t>
+          <t>-1,9; 0,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,71</t>
+          <t>-1,6; 0,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 18,58</t>
+          <t>-19,04; 20,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 12,49</t>
+          <t>-26,88; 12,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 10,97</t>
+          <t>-28,14; 8,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 14,51</t>
+          <t>-26,77; 16,85</t>
         </is>
       </c>
     </row>
